--- a/biology/Botanique/Scott_Zona/Scott_Zona.xlsx
+++ b/biology/Botanique/Scott_Zona/Scott_Zona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scott Zona (né en 1959) est un botaniste américain. De 1993 à 2008, il a été le biologiste des palmiers au Fairchild Tropical Botanic Garden . De 2008 à 2017, il a été conservateur du Florida International University Wertheim Conservatory[1]. Il est connu pour son étude des palmiers , et il est co-éditeur de Palms, le journal de l'International Palm Society (IPS)[2].
-Il a fait des recherches botaniques dans le Pacifique occidental, les Caraïbes, l'Amérique centrale, l'Amérique du Sud, Madagascar, la Malaisie et les États-Unis continentaux [3] et a publié plus de 150 articles scientifiques et populaires[1]. Il a reçu le prix Jesse M. Greenman en 1991 pour sa monographie de Sabal[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scott Zona (né en 1959) est un botaniste américain. De 1993 à 2008, il a été le biologiste des palmiers au Fairchild Tropical Botanic Garden . De 2008 à 2017, il a été conservateur du Florida International University Wertheim Conservatory. Il est connu pour son étude des palmiers , et il est co-éditeur de Palms, le journal de l'International Palm Society (IPS).
+Il a fait des recherches botaniques dans le Pacifique occidental, les Caraïbes, l'Amérique centrale, l'Amérique du Sud, Madagascar, la Malaisie et les États-Unis continentaux  et a publié plus de 150 articles scientifiques et populaires. Il a reçu le prix Jesse M. Greenman en 1991 pour sa monographie de Sabal.
 </t>
         </is>
       </c>
